--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.576647666666667</v>
+        <v>2.899789999999999</v>
       </c>
       <c r="H2">
-        <v>10.729943</v>
+        <v>8.699369999999998</v>
       </c>
       <c r="I2">
-        <v>0.07300995693036068</v>
+        <v>0.06694531890511572</v>
       </c>
       <c r="J2">
-        <v>0.07300995693036069</v>
+        <v>0.06694531890511572</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.996106333333334</v>
+        <v>4.820639</v>
       </c>
       <c r="N2">
-        <v>14.988319</v>
+        <v>14.461917</v>
       </c>
       <c r="O2">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="P2">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="Q2">
-        <v>17.86931205953522</v>
+        <v>13.97884076581</v>
       </c>
       <c r="R2">
-        <v>160.823808535817</v>
+        <v>125.80956689229</v>
       </c>
       <c r="S2">
-        <v>0.002402520663062827</v>
+        <v>0.002101880716803236</v>
       </c>
       <c r="T2">
-        <v>0.002402520663062828</v>
+        <v>0.002101880716803236</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.576647666666667</v>
+        <v>2.899789999999999</v>
       </c>
       <c r="H3">
-        <v>10.729943</v>
+        <v>8.699369999999998</v>
       </c>
       <c r="I3">
-        <v>0.07300995693036068</v>
+        <v>0.06694531890511572</v>
       </c>
       <c r="J3">
-        <v>0.07300995693036069</v>
+        <v>0.06694531890511572</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>106.222511</v>
       </c>
       <c r="O3">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="P3">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="Q3">
-        <v>126.6401653718748</v>
+        <v>102.6743250575633</v>
       </c>
       <c r="R3">
-        <v>1139.761488346873</v>
+        <v>924.0689255180698</v>
       </c>
       <c r="S3">
-        <v>0.01702671110482226</v>
+        <v>0.01543827471567701</v>
       </c>
       <c r="T3">
-        <v>0.01702671110482227</v>
+        <v>0.01543827471567702</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.576647666666667</v>
+        <v>2.899789999999999</v>
       </c>
       <c r="H4">
-        <v>10.729943</v>
+        <v>8.699369999999998</v>
       </c>
       <c r="I4">
-        <v>0.07300995693036068</v>
+        <v>0.06694531890511572</v>
       </c>
       <c r="J4">
-        <v>0.07300995693036069</v>
+        <v>0.06694531890511572</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.959315</v>
+        <v>51.32089766666667</v>
       </c>
       <c r="N4">
-        <v>170.877945</v>
+        <v>153.962693</v>
       </c>
       <c r="O4">
-        <v>0.3751613794588994</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="P4">
-        <v>0.3751613794588995</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="Q4">
-        <v>203.7234010896817</v>
+        <v>148.8198258448233</v>
       </c>
       <c r="R4">
-        <v>1833.510609807135</v>
+        <v>1339.37843260341</v>
       </c>
       <c r="S4">
-        <v>0.02739051615622895</v>
+        <v>0.02237678556195535</v>
       </c>
       <c r="T4">
-        <v>0.02739051615622896</v>
+        <v>0.02237678556195535</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.576647666666667</v>
+        <v>2.899789999999999</v>
       </c>
       <c r="H5">
-        <v>10.729943</v>
+        <v>8.699369999999998</v>
       </c>
       <c r="I5">
-        <v>0.07300995693036068</v>
+        <v>0.06694531890511572</v>
       </c>
       <c r="J5">
-        <v>0.07300995693036069</v>
+        <v>0.06694531890511572</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.983297666666667</v>
+        <v>4.113383</v>
       </c>
       <c r="N5">
-        <v>11.949893</v>
+        <v>12.340149</v>
       </c>
       <c r="O5">
-        <v>0.02623590974403541</v>
+        <v>0.0267905969084159</v>
       </c>
       <c r="P5">
-        <v>0.02623590974403541</v>
+        <v>0.02679059690841591</v>
       </c>
       <c r="Q5">
-        <v>14.24685230512211</v>
+        <v>11.92794688957</v>
       </c>
       <c r="R5">
-        <v>128.221670746099</v>
+        <v>107.35152200613</v>
       </c>
       <c r="S5">
-        <v>0.001915482640440855</v>
+        <v>0.00179350505369231</v>
       </c>
       <c r="T5">
-        <v>0.001915482640440856</v>
+        <v>0.001793505053692311</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.576647666666667</v>
+        <v>2.899789999999999</v>
       </c>
       <c r="H6">
-        <v>10.729943</v>
+        <v>8.699369999999998</v>
       </c>
       <c r="I6">
-        <v>0.07300995693036068</v>
+        <v>0.06694531890511572</v>
       </c>
       <c r="J6">
-        <v>0.07300995693036069</v>
+        <v>0.06694531890511572</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>50.47994633333334</v>
+        <v>57.87588766666666</v>
       </c>
       <c r="N6">
-        <v>151.439839</v>
+        <v>173.627663</v>
       </c>
       <c r="O6">
-        <v>0.332485148415576</v>
+        <v>0.376947533743983</v>
       </c>
       <c r="P6">
-        <v>0.3324851484155761</v>
+        <v>0.3769475337439831</v>
       </c>
       <c r="Q6">
-        <v>180.5489822665753</v>
+        <v>167.8279202969233</v>
       </c>
       <c r="R6">
-        <v>1624.940840399177</v>
+        <v>1510.45128267231</v>
       </c>
       <c r="S6">
-        <v>0.02427472636580578</v>
+        <v>0.02523487285698782</v>
       </c>
       <c r="T6">
-        <v>0.02427472636580579</v>
+        <v>0.02523487285698782</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>86.406451</v>
       </c>
       <c r="I7">
-        <v>0.587937071614949</v>
+        <v>0.6649340604726844</v>
       </c>
       <c r="J7">
-        <v>0.587937071614949</v>
+        <v>0.6649340604726844</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.996106333333334</v>
+        <v>4.820639</v>
       </c>
       <c r="N7">
-        <v>14.988319</v>
+        <v>14.461917</v>
       </c>
       <c r="O7">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="P7">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="Q7">
-        <v>143.8986056939854</v>
+        <v>138.8447691807297</v>
       </c>
       <c r="R7">
-        <v>1295.087451245869</v>
+        <v>1249.602922626567</v>
       </c>
       <c r="S7">
-        <v>0.01934710034800984</v>
+        <v>0.02087692018666912</v>
       </c>
       <c r="T7">
-        <v>0.01934710034800984</v>
+        <v>0.02087692018666912</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>86.406451</v>
       </c>
       <c r="I8">
-        <v>0.587937071614949</v>
+        <v>0.6649340604726844</v>
       </c>
       <c r="J8">
-        <v>0.587937071614949</v>
+        <v>0.6649340604726844</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>106.222511</v>
       </c>
       <c r="O8">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="P8">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="Q8">
         <v>1019.812243535384</v>
@@ -948,10 +948,10 @@
         <v>9178.310191818462</v>
       </c>
       <c r="S8">
-        <v>0.1371132799838713</v>
+        <v>0.1533405899214179</v>
       </c>
       <c r="T8">
-        <v>0.1371132799838714</v>
+        <v>0.1533405899214179</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>86.406451</v>
       </c>
       <c r="I9">
-        <v>0.587937071614949</v>
+        <v>0.6649340604726844</v>
       </c>
       <c r="J9">
-        <v>0.587937071614949</v>
+        <v>0.6649340604726844</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.959315</v>
+        <v>51.32089766666667</v>
       </c>
       <c r="N9">
-        <v>170.877945</v>
+        <v>153.962693</v>
       </c>
       <c r="O9">
-        <v>0.3751613794588994</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="P9">
-        <v>0.3751613794588995</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="Q9">
-        <v>1640.550753513689</v>
+        <v>1478.152209836949</v>
       </c>
       <c r="R9">
-        <v>14764.9567816232</v>
+        <v>13303.36988853254</v>
       </c>
       <c r="S9">
-        <v>0.22057128282209</v>
+        <v>0.2222573157822466</v>
       </c>
       <c r="T9">
-        <v>0.22057128282209</v>
+        <v>0.2222573157822466</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>86.406451</v>
       </c>
       <c r="I10">
-        <v>0.587937071614949</v>
+        <v>0.6649340604726844</v>
       </c>
       <c r="J10">
-        <v>0.587937071614949</v>
+        <v>0.6649340604726844</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.983297666666667</v>
+        <v>4.113383</v>
       </c>
       <c r="N10">
-        <v>11.949893</v>
+        <v>12.340149</v>
       </c>
       <c r="O10">
-        <v>0.02623590974403541</v>
+        <v>0.0267905969084159</v>
       </c>
       <c r="P10">
-        <v>0.02623590974403541</v>
+        <v>0.02679059690841591</v>
       </c>
       <c r="Q10">
-        <v>114.7275382177492</v>
+        <v>118.4742755445777</v>
       </c>
       <c r="R10">
-        <v>1032.547843959743</v>
+        <v>1066.268479901199</v>
       </c>
       <c r="S10">
-        <v>0.01542506394606229</v>
+        <v>0.01781398038479994</v>
       </c>
       <c r="T10">
-        <v>0.01542506394606229</v>
+        <v>0.01781398038479994</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>86.406451</v>
       </c>
       <c r="I11">
-        <v>0.587937071614949</v>
+        <v>0.6649340604726844</v>
       </c>
       <c r="J11">
-        <v>0.587937071614949</v>
+        <v>0.6649340604726844</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.47994633333334</v>
+        <v>57.87588766666666</v>
       </c>
       <c r="N11">
-        <v>151.439839</v>
+        <v>173.627663</v>
       </c>
       <c r="O11">
-        <v>0.332485148415576</v>
+        <v>0.376947533743983</v>
       </c>
       <c r="P11">
-        <v>0.3324851484155761</v>
+        <v>0.3769475337439831</v>
       </c>
       <c r="Q11">
-        <v>1453.931003111266</v>
+        <v>1666.950017250446</v>
       </c>
       <c r="R11">
-        <v>13085.37902800139</v>
+        <v>15002.55015525401</v>
       </c>
       <c r="S11">
-        <v>0.1954803445149155</v>
+        <v>0.2506452541975509</v>
       </c>
       <c r="T11">
-        <v>0.1954803445149155</v>
+        <v>0.2506452541975509</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.01220133333333333</v>
+        <v>0.08466666666666667</v>
       </c>
       <c r="H12">
-        <v>0.036604</v>
+        <v>0.254</v>
       </c>
       <c r="I12">
-        <v>0.0002490652991799605</v>
+        <v>0.001954637060143366</v>
       </c>
       <c r="J12">
-        <v>0.0002490652991799605</v>
+        <v>0.001954637060143366</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.996106333333334</v>
+        <v>4.820639</v>
       </c>
       <c r="N12">
-        <v>14.988319</v>
+        <v>14.461917</v>
       </c>
       <c r="O12">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="P12">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="Q12">
-        <v>0.06095915874177779</v>
+        <v>0.4081474353333333</v>
       </c>
       <c r="R12">
-        <v>0.548632428676</v>
+        <v>3.673326918</v>
       </c>
       <c r="S12">
-        <v>8.195930430455385E-06</v>
+        <v>6.136969712381725E-05</v>
       </c>
       <c r="T12">
-        <v>8.195930430455385E-06</v>
+        <v>6.136969712381725E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.01220133333333333</v>
+        <v>0.08466666666666667</v>
       </c>
       <c r="H13">
-        <v>0.036604</v>
+        <v>0.254</v>
       </c>
       <c r="I13">
-        <v>0.0002490652991799605</v>
+        <v>0.001954637060143366</v>
       </c>
       <c r="J13">
-        <v>0.0002490652991799605</v>
+        <v>0.001954637060143366</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>106.222511</v>
       </c>
       <c r="O13">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="P13">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="Q13">
-        <v>0.4320187547382222</v>
+        <v>2.997835310444444</v>
       </c>
       <c r="R13">
-        <v>3.888168792644001</v>
+        <v>26.980517794</v>
       </c>
       <c r="S13">
-        <v>5.808471986113198E-05</v>
+        <v>0.0004507592823137724</v>
       </c>
       <c r="T13">
-        <v>5.8084719861132E-05</v>
+        <v>0.0004507592823137725</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.01220133333333333</v>
+        <v>0.08466666666666667</v>
       </c>
       <c r="H14">
-        <v>0.036604</v>
+        <v>0.254</v>
       </c>
       <c r="I14">
-        <v>0.0002490652991799605</v>
+        <v>0.001954637060143366</v>
       </c>
       <c r="J14">
-        <v>0.0002490652991799605</v>
+        <v>0.001954637060143366</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>56.959315</v>
+        <v>51.32089766666667</v>
       </c>
       <c r="N14">
-        <v>170.877945</v>
+        <v>153.962693</v>
       </c>
       <c r="O14">
-        <v>0.3751613794588994</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="P14">
-        <v>0.3751613794588995</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="Q14">
-        <v>0.6949795887533334</v>
+        <v>4.345169335777778</v>
       </c>
       <c r="R14">
-        <v>6.254816298780002</v>
+        <v>39.106524022</v>
       </c>
       <c r="S14">
-        <v>9.343968121569748E-05</v>
+        <v>0.0006533465679395932</v>
       </c>
       <c r="T14">
-        <v>9.34396812156975E-05</v>
+        <v>0.0006533465679395932</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.01220133333333333</v>
+        <v>0.08466666666666667</v>
       </c>
       <c r="H15">
-        <v>0.036604</v>
+        <v>0.254</v>
       </c>
       <c r="I15">
-        <v>0.0002490652991799605</v>
+        <v>0.001954637060143366</v>
       </c>
       <c r="J15">
-        <v>0.0002490652991799605</v>
+        <v>0.001954637060143366</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.983297666666667</v>
+        <v>4.113383</v>
       </c>
       <c r="N15">
-        <v>11.949893</v>
+        <v>12.340149</v>
       </c>
       <c r="O15">
-        <v>0.02623590974403541</v>
+        <v>0.0267905969084159</v>
       </c>
       <c r="P15">
-        <v>0.02623590974403541</v>
+        <v>0.02679059690841591</v>
       </c>
       <c r="Q15">
-        <v>0.0486015425968889</v>
+        <v>0.3482664273333333</v>
       </c>
       <c r="R15">
-        <v>0.4374138833720001</v>
+        <v>3.134397846</v>
       </c>
       <c r="S15">
-        <v>6.53445470965662E-06</v>
+        <v>5.236589358055203E-05</v>
       </c>
       <c r="T15">
-        <v>6.534454709656621E-06</v>
+        <v>5.236589358055204E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.01220133333333333</v>
+        <v>0.08466666666666667</v>
       </c>
       <c r="H16">
-        <v>0.036604</v>
+        <v>0.254</v>
       </c>
       <c r="I16">
-        <v>0.0002490652991799605</v>
+        <v>0.001954637060143366</v>
       </c>
       <c r="J16">
-        <v>0.0002490652991799605</v>
+        <v>0.001954637060143366</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.47994633333334</v>
+        <v>57.87588766666666</v>
       </c>
       <c r="N16">
-        <v>151.439839</v>
+        <v>173.627663</v>
       </c>
       <c r="O16">
-        <v>0.332485148415576</v>
+        <v>0.376947533743983</v>
       </c>
       <c r="P16">
-        <v>0.3324851484155761</v>
+        <v>0.3769475337439831</v>
       </c>
       <c r="Q16">
-        <v>0.6159226518617779</v>
+        <v>4.900158489111111</v>
       </c>
       <c r="R16">
-        <v>5.543303866756001</v>
+        <v>44.10142640199999</v>
       </c>
       <c r="S16">
-        <v>8.281051296301901E-05</v>
+        <v>0.0007367956191856314</v>
       </c>
       <c r="T16">
-        <v>8.281051296301903E-05</v>
+        <v>0.0007367956191856315</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16.57678633333333</v>
+        <v>11.50233066666667</v>
       </c>
       <c r="H17">
-        <v>49.730359</v>
+        <v>34.506992</v>
       </c>
       <c r="I17">
-        <v>0.338381235456831</v>
+        <v>0.2655458480207506</v>
       </c>
       <c r="J17">
-        <v>0.338381235456831</v>
+        <v>0.2655458480207506</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.996106333333334</v>
+        <v>4.820639</v>
       </c>
       <c r="N17">
-        <v>14.988319</v>
+        <v>14.461917</v>
       </c>
       <c r="O17">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="P17">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="Q17">
-        <v>82.81938718628012</v>
+        <v>55.44858380262933</v>
       </c>
       <c r="R17">
-        <v>745.374484676521</v>
+        <v>499.0372542236639</v>
       </c>
       <c r="S17">
-        <v>0.01113502793808247</v>
+        <v>0.008337337195645608</v>
       </c>
       <c r="T17">
-        <v>0.01113502793808247</v>
+        <v>0.008337337195645608</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>16.57678633333333</v>
+        <v>11.50233066666667</v>
       </c>
       <c r="H18">
-        <v>49.730359</v>
+        <v>34.506992</v>
       </c>
       <c r="I18">
-        <v>0.338381235456831</v>
+        <v>0.2655458480207506</v>
       </c>
       <c r="J18">
-        <v>0.338381235456831</v>
+        <v>0.2655458480207506</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>106.222511</v>
       </c>
       <c r="O18">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="P18">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="Q18">
-        <v>586.9426228790498</v>
+        <v>407.2688152552124</v>
       </c>
       <c r="R18">
-        <v>5282.483605911449</v>
+        <v>3665.419337296912</v>
       </c>
       <c r="S18">
-        <v>0.07891416159732606</v>
+        <v>0.06123758641231136</v>
       </c>
       <c r="T18">
-        <v>0.07891416159732609</v>
+        <v>0.06123758641231136</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>16.57678633333333</v>
+        <v>11.50233066666667</v>
       </c>
       <c r="H19">
-        <v>49.730359</v>
+        <v>34.506992</v>
       </c>
       <c r="I19">
-        <v>0.338381235456831</v>
+        <v>0.2655458480207506</v>
       </c>
       <c r="J19">
-        <v>0.338381235456831</v>
+        <v>0.2655458480207506</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>56.959315</v>
+        <v>51.32089766666667</v>
       </c>
       <c r="N19">
-        <v>170.877945</v>
+        <v>153.962693</v>
       </c>
       <c r="O19">
-        <v>0.3751613794588994</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="P19">
-        <v>0.3751613794588995</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="Q19">
-        <v>944.2023944480285</v>
+        <v>590.3099350721617</v>
       </c>
       <c r="R19">
-        <v>8497.821550032255</v>
+        <v>5312.789415649456</v>
       </c>
       <c r="S19">
-        <v>0.1269475710769914</v>
+        <v>0.08875994013038975</v>
       </c>
       <c r="T19">
-        <v>0.1269475710769914</v>
+        <v>0.08875994013038975</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.57678633333333</v>
+        <v>11.50233066666667</v>
       </c>
       <c r="H20">
-        <v>49.730359</v>
+        <v>34.506992</v>
       </c>
       <c r="I20">
-        <v>0.338381235456831</v>
+        <v>0.2655458480207506</v>
       </c>
       <c r="J20">
-        <v>0.338381235456831</v>
+        <v>0.2655458480207506</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.983297666666667</v>
+        <v>4.113383</v>
       </c>
       <c r="N20">
-        <v>11.949893</v>
+        <v>12.340149</v>
       </c>
       <c r="O20">
-        <v>0.02623590974403541</v>
+        <v>0.0267905969084159</v>
       </c>
       <c r="P20">
-        <v>0.02623590974403541</v>
+        <v>0.02679059690841591</v>
       </c>
       <c r="Q20">
-        <v>66.03027432239857</v>
+        <v>47.31349142464533</v>
       </c>
       <c r="R20">
-        <v>594.2724689015871</v>
+        <v>425.821422821808</v>
       </c>
       <c r="S20">
-        <v>0.008877739552520612</v>
+        <v>0.007114131775027401</v>
       </c>
       <c r="T20">
-        <v>0.008877739552520612</v>
+        <v>0.007114131775027403</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.57678633333333</v>
+        <v>11.50233066666667</v>
       </c>
       <c r="H21">
-        <v>49.730359</v>
+        <v>34.506992</v>
       </c>
       <c r="I21">
-        <v>0.338381235456831</v>
+        <v>0.2655458480207506</v>
       </c>
       <c r="J21">
-        <v>0.338381235456831</v>
+        <v>0.2655458480207506</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>50.47994633333334</v>
+        <v>57.87588766666666</v>
       </c>
       <c r="N21">
-        <v>151.439839</v>
+        <v>173.627663</v>
       </c>
       <c r="O21">
-        <v>0.332485148415576</v>
+        <v>0.376947533743983</v>
       </c>
       <c r="P21">
-        <v>0.3324851484155761</v>
+        <v>0.3769475337439831</v>
       </c>
       <c r="Q21">
-        <v>836.7952844858003</v>
+        <v>665.707597568855</v>
       </c>
       <c r="R21">
-        <v>7531.157560372201</v>
+        <v>5991.368378119695</v>
       </c>
       <c r="S21">
-        <v>0.1125067352919104</v>
+        <v>0.1000968525073765</v>
       </c>
       <c r="T21">
-        <v>0.1125067352919104</v>
+        <v>0.1000968525073765</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.020706</v>
+        <v>0.02686166666666667</v>
       </c>
       <c r="H22">
-        <v>0.062118</v>
+        <v>0.080585</v>
       </c>
       <c r="I22">
-        <v>0.0004226706986794007</v>
+        <v>0.0006201355413057212</v>
       </c>
       <c r="J22">
-        <v>0.0004226706986794007</v>
+        <v>0.0006201355413057212</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.996106333333334</v>
+        <v>4.820639</v>
       </c>
       <c r="N22">
-        <v>14.988319</v>
+        <v>14.461917</v>
       </c>
       <c r="O22">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="P22">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="Q22">
-        <v>0.103449377738</v>
+        <v>0.1294903979383333</v>
       </c>
       <c r="R22">
-        <v>0.931044399642</v>
+        <v>1.165413581445</v>
       </c>
       <c r="S22">
-        <v>1.390872053543404E-05</v>
+        <v>1.947038205796383E-05</v>
       </c>
       <c r="T22">
-        <v>1.390872053543404E-05</v>
+        <v>1.947038205796383E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.020706</v>
+        <v>0.02686166666666667</v>
       </c>
       <c r="H23">
-        <v>0.062118</v>
+        <v>0.080585</v>
       </c>
       <c r="I23">
-        <v>0.0004226706986794007</v>
+        <v>0.0006201355413057212</v>
       </c>
       <c r="J23">
-        <v>0.0004226706986794007</v>
+        <v>0.0006201355413057212</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>106.222511</v>
       </c>
       <c r="O23">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="P23">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="Q23">
-        <v>0.7331477709219999</v>
+        <v>0.9511045609927777</v>
       </c>
       <c r="R23">
-        <v>6.598329938298</v>
+        <v>8.559941048935</v>
       </c>
       <c r="S23">
-        <v>9.857137548720891E-05</v>
+        <v>0.0001430095935639975</v>
       </c>
       <c r="T23">
-        <v>9.857137548720895E-05</v>
+        <v>0.0001430095935639975</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.020706</v>
+        <v>0.02686166666666667</v>
       </c>
       <c r="H24">
-        <v>0.062118</v>
+        <v>0.080585</v>
       </c>
       <c r="I24">
-        <v>0.0004226706986794007</v>
+        <v>0.0006201355413057212</v>
       </c>
       <c r="J24">
-        <v>0.0004226706986794007</v>
+        <v>0.0006201355413057212</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>56.959315</v>
+        <v>51.32089766666667</v>
       </c>
       <c r="N24">
-        <v>170.877945</v>
+        <v>153.962693</v>
       </c>
       <c r="O24">
-        <v>0.3751613794588994</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="P24">
-        <v>0.3751613794588995</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="Q24">
-        <v>1.17939957639</v>
+        <v>1.378564846156111</v>
       </c>
       <c r="R24">
-        <v>10.61459618751</v>
+        <v>12.407083615405</v>
       </c>
       <c r="S24">
-        <v>0.0001585697223734208</v>
+        <v>0.0002072832014858745</v>
       </c>
       <c r="T24">
-        <v>0.0001585697223734208</v>
+        <v>0.0002072832014858745</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.020706</v>
+        <v>0.02686166666666667</v>
       </c>
       <c r="H25">
-        <v>0.062118</v>
+        <v>0.080585</v>
       </c>
       <c r="I25">
-        <v>0.0004226706986794007</v>
+        <v>0.0006201355413057212</v>
       </c>
       <c r="J25">
-        <v>0.0004226706986794007</v>
+        <v>0.0006201355413057212</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.983297666666667</v>
+        <v>4.113383</v>
       </c>
       <c r="N25">
-        <v>11.949893</v>
+        <v>12.340149</v>
       </c>
       <c r="O25">
-        <v>0.02623590974403541</v>
+        <v>0.0267905969084159</v>
       </c>
       <c r="P25">
-        <v>0.02623590974403541</v>
+        <v>0.02679059690841591</v>
       </c>
       <c r="Q25">
-        <v>0.082478161486</v>
+        <v>0.1104923230183333</v>
       </c>
       <c r="R25">
-        <v>0.7423034533740001</v>
+        <v>0.994430907165</v>
       </c>
       <c r="S25">
-        <v>1.108915030200114E-05</v>
+        <v>1.661380131570388E-05</v>
       </c>
       <c r="T25">
-        <v>1.108915030200114E-05</v>
+        <v>1.661380131570388E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.020706</v>
+        <v>0.02686166666666667</v>
       </c>
       <c r="H26">
-        <v>0.062118</v>
+        <v>0.080585</v>
       </c>
       <c r="I26">
-        <v>0.0004226706986794007</v>
+        <v>0.0006201355413057212</v>
       </c>
       <c r="J26">
-        <v>0.0004226706986794007</v>
+        <v>0.0006201355413057212</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>50.47994633333334</v>
+        <v>57.87588766666666</v>
       </c>
       <c r="N26">
-        <v>151.439839</v>
+        <v>173.627663</v>
       </c>
       <c r="O26">
-        <v>0.332485148415576</v>
+        <v>0.376947533743983</v>
       </c>
       <c r="P26">
-        <v>0.3324851484155761</v>
+        <v>0.3769475337439831</v>
       </c>
       <c r="Q26">
-        <v>1.045237768778</v>
+        <v>1.554642802539445</v>
       </c>
       <c r="R26">
-        <v>9.407139919002001</v>
+        <v>13.991785222855</v>
       </c>
       <c r="S26">
-        <v>0.0001405317299813357</v>
+        <v>0.0002337585628821815</v>
       </c>
       <c r="T26">
-        <v>0.0001405317299813358</v>
+        <v>0.0002337585628821816</v>
       </c>
     </row>
   </sheetData>
